--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -2,41 +2,300 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503072C1-4A50-418F-9D84-E6CF9B168A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6E891-6D4C-4CA2-B002-259C4A37E743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC82C207-0CDA-4B84-BC38-472F0FAC1A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Capitales_Wilaya" sheetId="3" r:id="rId1"/>
+    <sheet name="Mougataa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capitales_Wilaya!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mougataa!$A$1:$D$64</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Tiris Zemmour</t>
+  </si>
+  <si>
+    <t>Nouakchott-Ouest</t>
+  </si>
+  <si>
+    <t>Nouakchott-Sud</t>
+  </si>
+  <si>
+    <t>Brakna</t>
+  </si>
+  <si>
+    <t>Dakhlet Nouadhibou</t>
+  </si>
+  <si>
+    <t>Gorgol</t>
+  </si>
+  <si>
+    <t>Guidimagha</t>
+  </si>
+  <si>
+    <t>Assaba</t>
+  </si>
+  <si>
+    <t>Hodh Chargui</t>
+  </si>
+  <si>
+    <t>Hodh El Gharbi</t>
+  </si>
+  <si>
+    <t>Adrar</t>
+  </si>
+  <si>
+    <t>Inchiri</t>
+  </si>
+  <si>
+    <t>Nouakchott-Nord</t>
+  </si>
+  <si>
+    <t>Trarza</t>
+  </si>
+  <si>
+    <t>Tagant</t>
+  </si>
+  <si>
+    <t>wilaya</t>
+  </si>
+  <si>
+    <t>Sebkha</t>
+  </si>
+  <si>
+    <t>Arafat</t>
+  </si>
+  <si>
+    <t>Aïoun</t>
+  </si>
+  <si>
+    <t>Néma</t>
+  </si>
+  <si>
+    <t>Zoueratt</t>
+  </si>
+  <si>
+    <t>Dar Naïm</t>
+  </si>
+  <si>
+    <t>Kankoussa</t>
+  </si>
+  <si>
+    <t>Magtalahjar</t>
+  </si>
+  <si>
+    <t>Bir Moghrein</t>
+  </si>
+  <si>
+    <t>Mederdra</t>
+  </si>
+  <si>
+    <t>Oualata</t>
+  </si>
+  <si>
+    <t>Teyaret</t>
+  </si>
+  <si>
+    <t>Tevragh Zeina</t>
+  </si>
+  <si>
+    <t>Tidjikja</t>
+  </si>
+  <si>
+    <t>Ouad Naga</t>
+  </si>
+  <si>
+    <t>M'Bout</t>
+  </si>
+  <si>
+    <t>Adel Bagrou</t>
+  </si>
+  <si>
+    <t>Monguel</t>
+  </si>
+  <si>
+    <t>Boutilimit</t>
+  </si>
+  <si>
+    <t>Chinguitti</t>
+  </si>
+  <si>
+    <t>Atar</t>
+  </si>
+  <si>
+    <t>Bassiknou</t>
+  </si>
+  <si>
+    <t>Keur Macène</t>
+  </si>
+  <si>
+    <t>Tamcheket</t>
+  </si>
+  <si>
+    <t>Boghé</t>
+  </si>
+  <si>
+    <t>Ghabou</t>
+  </si>
+  <si>
+    <t>Riyad</t>
+  </si>
+  <si>
+    <t>Aleg</t>
+  </si>
+  <si>
+    <t>Maghama</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Tekane</t>
+  </si>
+  <si>
+    <t>Ksar</t>
+  </si>
+  <si>
+    <t>Toujounine</t>
+  </si>
+  <si>
+    <t>Bababé</t>
+  </si>
+  <si>
+    <t>Rosso</t>
+  </si>
+  <si>
+    <t>Akjoujt</t>
+  </si>
+  <si>
+    <t>Guerou</t>
+  </si>
+  <si>
+    <t>Tichit</t>
+  </si>
+  <si>
+    <t>Ould Yengé</t>
+  </si>
+  <si>
+    <t>Kiffa</t>
+  </si>
+  <si>
+    <t>Koubenni</t>
+  </si>
+  <si>
+    <t>Nouadhibou</t>
+  </si>
+  <si>
+    <t>Kaédi</t>
+  </si>
+  <si>
+    <t>Chami</t>
+  </si>
+  <si>
+    <t>Boumdeid</t>
+  </si>
+  <si>
+    <t>Amourj</t>
+  </si>
+  <si>
+    <t>Wompou</t>
+  </si>
+  <si>
+    <t>F'Deirick</t>
+  </si>
+  <si>
+    <t>Barkéol</t>
+  </si>
+  <si>
+    <t>Lexeiba</t>
+  </si>
+  <si>
+    <t>Touil</t>
+  </si>
+  <si>
+    <t>Ouadane</t>
+  </si>
+  <si>
+    <t>R'Kiz</t>
+  </si>
+  <si>
+    <t>Sélibaby</t>
+  </si>
+  <si>
+    <t>M'Bagne</t>
+  </si>
+  <si>
+    <t>Moudjeria</t>
+  </si>
+  <si>
+    <t>Timbedra</t>
+  </si>
+  <si>
+    <t>El Mina</t>
+  </si>
+  <si>
+    <t>Djiguenni</t>
+  </si>
+  <si>
+    <t>N'beiket Lahwach</t>
+  </si>
+  <si>
+    <t>Bennechab</t>
+  </si>
+  <si>
+    <t>Tintane</t>
+  </si>
+  <si>
+    <t>Aoujeft</t>
+  </si>
   <si>
     <t>Ville</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Aïoun</t>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>15.777110526156</t>
+  </si>
+  <si>
+    <t>-6.67675230545682</t>
   </si>
   <si>
     <t>16.8366893287323</t>
@@ -45,22 +304,370 @@
     <t>-9.27583480330441</t>
   </si>
   <si>
-    <t>Akjoujt</t>
-  </si>
-  <si>
     <t>19.9420143167071</t>
   </si>
   <si>
     <t>-14.6440193516613</t>
   </si>
   <si>
-    <t>Aleg</t>
-  </si>
-  <si>
     <t>17.1728009990846</t>
   </si>
   <si>
     <t>-13.9023810848904</t>
+  </si>
+  <si>
+    <t>15.7729728553603</t>
+  </si>
+  <si>
+    <t>-7.37091423643246</t>
+  </si>
+  <si>
+    <t>19.4184509680169</t>
+  </si>
+  <si>
+    <t>-13.060785774459</t>
+  </si>
+  <si>
+    <t>18.050476</t>
+  </si>
+  <si>
+    <t>-15.9580543123123</t>
+  </si>
+  <si>
+    <t>20.6190971368345</t>
+  </si>
+  <si>
+    <t>-13.4188043441809</t>
+  </si>
+  <si>
+    <t>16.4852720675491</t>
+  </si>
+  <si>
+    <t>-13.9241247333335</t>
+  </si>
+  <si>
+    <t>16.6751124071314</t>
+  </si>
+  <si>
+    <t>-12.3991903380487</t>
+  </si>
+  <si>
+    <t>16.0501564070982</t>
+  </si>
+  <si>
+    <t>-6.01154050647926</t>
+  </si>
+  <si>
+    <t>19.3530037323343</t>
+  </si>
+  <si>
+    <t>-15.3224034274247</t>
+  </si>
+  <si>
+    <t>25.6582202666742</t>
+  </si>
+  <si>
+    <t>-8.66829739348436</t>
+  </si>
+  <si>
+    <t>16.670922402766</t>
+  </si>
+  <si>
+    <t>-14.4061446258428</t>
+  </si>
+  <si>
+    <t>17.7827046083815</t>
+  </si>
+  <si>
+    <t>-11.2722471937061</t>
+  </si>
+  <si>
+    <t>18.1369336584647</t>
+  </si>
+  <si>
+    <t>-14.1193843326365</t>
+  </si>
+  <si>
+    <t>19.6331114605043</t>
+  </si>
+  <si>
+    <t>-16.4883891371054</t>
+  </si>
+  <si>
+    <t>20.1657568787497</t>
+  </si>
+  <si>
+    <t>-10.3961176356604</t>
+  </si>
+  <si>
+    <t>18.0783994226296</t>
+  </si>
+  <si>
+    <t>-15.885155269477</t>
+  </si>
+  <si>
+    <t>15.931241489269</t>
+  </si>
+  <si>
+    <t>-8.73373374618077</t>
+  </si>
+  <si>
+    <t>18.0539479806214</t>
+  </si>
+  <si>
+    <t>-15.9569886032454</t>
+  </si>
+  <si>
+    <t>22.6555897775708</t>
+  </si>
+  <si>
+    <t>-12.7864363579804</t>
+  </si>
+  <si>
+    <t>15.3526009000657</t>
+  </si>
+  <si>
+    <t>-12.491989847739</t>
+  </si>
+  <si>
+    <t>16.886033457674</t>
+  </si>
+  <si>
+    <t>-11.9970392826645</t>
+  </si>
+  <si>
+    <t>16.0455219912174</t>
+  </si>
+  <si>
+    <t>-13.1873050779235</t>
+  </si>
+  <si>
+    <t>15.8155101212945</t>
+  </si>
+  <si>
+    <t>-11.1243624228058</t>
+  </si>
+  <si>
+    <t>16.6481629446986</t>
+  </si>
+  <si>
+    <t>-16.2380715659807</t>
+  </si>
+  <si>
+    <t>16.678771880566</t>
+  </si>
+  <si>
+    <t>-11.4111923888962</t>
+  </si>
+  <si>
+    <t>15.8810177989499</t>
+  </si>
+  <si>
+    <t>-9.44679210630746</t>
+  </si>
+  <si>
+    <t>18.0759095628086</t>
+  </si>
+  <si>
+    <t>-16.0205979614608</t>
+  </si>
+  <si>
+    <t>16.2264551</t>
+  </si>
+  <si>
+    <t>-13.1398876</t>
+  </si>
+  <si>
+    <t>16.2669049225824</t>
+  </si>
+  <si>
+    <t>-13.7808228609031</t>
+  </si>
+  <si>
+    <t>16.0458397534298</t>
+  </si>
+  <si>
+    <t>-12.5257739402154</t>
+  </si>
+  <si>
+    <t>15.54229228636</t>
+  </si>
+  <si>
+    <t>-12.8503711933997</t>
+  </si>
+  <si>
+    <t>17.7374432436965</t>
+  </si>
+  <si>
+    <t>-12.9366786681538</t>
+  </si>
+  <si>
+    <t>16.7891254973091</t>
+  </si>
+  <si>
+    <t>-13.339957843615</t>
+  </si>
+  <si>
+    <t>17.1292440228788</t>
+  </si>
+  <si>
+    <t>-15.7305745387385</t>
+  </si>
+  <si>
+    <t>16.4547434782446</t>
+  </si>
+  <si>
+    <t>-12.973608131229</t>
+  </si>
+  <si>
+    <t>17.8312555690455</t>
+  </si>
+  <si>
+    <t>-12.1452876614686</t>
+  </si>
+  <si>
+    <t>17.6303249056768</t>
+  </si>
+  <si>
+    <t>-6.17096602097312</t>
+  </si>
+  <si>
+    <t>16.3926143684381</t>
+  </si>
+  <si>
+    <t>-7.34328812930029</t>
+  </si>
+  <si>
+    <t>21.0200766331283</t>
+  </si>
+  <si>
+    <t>-15.9151199295992</t>
+  </si>
+  <si>
+    <t>18.2313375450054</t>
+  </si>
+  <si>
+    <t>-15.3552955267554</t>
+  </si>
+  <si>
+    <t>21.8839605148634</t>
+  </si>
+  <si>
+    <t>-8.74801953331454</t>
+  </si>
+  <si>
+    <t>19.1103349267417</t>
+  </si>
+  <si>
+    <t>-7.23951167244725</t>
+  </si>
+  <si>
+    <t>15.6792341348242</t>
+  </si>
+  <si>
+    <t>-11.8852789596282</t>
+  </si>
+  <si>
+    <t>17.0497048049145</t>
+  </si>
+  <si>
+    <t>-15.0388179256894</t>
+  </si>
+  <si>
+    <t>17.9666550985718</t>
+  </si>
+  <si>
+    <t>-15.911298584619</t>
+  </si>
+  <si>
+    <t>16.6264755333439</t>
+  </si>
+  <si>
+    <t>-15.6941505288147</t>
+  </si>
+  <si>
+    <t>18.1358804287456</t>
+  </si>
+  <si>
+    <t>-15.9660172677971</t>
+  </si>
+  <si>
+    <t>15.4729996284158</t>
+  </si>
+  <si>
+    <t>-12.1965786387684</t>
+  </si>
+  <si>
+    <t>17.0938844721679</t>
+  </si>
+  <si>
+    <t>-10.4569615551753</t>
+  </si>
+  <si>
+    <t>16.7716589355234</t>
+  </si>
+  <si>
+    <t>-15.1409551685359</t>
+  </si>
+  <si>
+    <t>18.285112189561</t>
+  </si>
+  <si>
+    <t>-16.0015389922396</t>
+  </si>
+  <si>
+    <t>18.2992176900707</t>
+  </si>
+  <si>
+    <t>-15.9199108542987</t>
+  </si>
+  <si>
+    <t>18.7090457656802</t>
+  </si>
+  <si>
+    <t>-9.68135902252534</t>
+  </si>
+  <si>
+    <t>18.6315729894793</t>
+  </si>
+  <si>
+    <t>-11.5524434053275</t>
+  </si>
+  <si>
+    <t>16.1932814195373</t>
+  </si>
+  <si>
+    <t>-8.19197204274579</t>
+  </si>
+  <si>
+    <t>16.1231101074115</t>
+  </si>
+  <si>
+    <t>-10.350890869564</t>
+  </si>
+  <si>
+    <t>15.5680799728925</t>
+  </si>
+  <si>
+    <t>-10.2361510874144</t>
+  </si>
+  <si>
+    <t>18.1199707444677</t>
+  </si>
+  <si>
+    <t>-15.9199044005033</t>
+  </si>
+  <si>
+    <t>15.1285491</t>
+  </si>
+  <si>
+    <t>-12.7224746</t>
+  </si>
+  <si>
+    <t>23.4958870003132</t>
+  </si>
+  <si>
+    <t>-10.1376367144798</t>
   </si>
 </sst>
 </file>
@@ -69,7 +676,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,7 +735,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -151,44 +758,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -216,31 +823,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -268,23 +858,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -296,163 +869,222 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF242B39-D2E5-4831-8D23-BE6F4839F10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51796C5-D7F2-A644-9859-4808C732DA17}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C14" sqref="A6:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -463,88 +1095,1068 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -2,41 +2,300 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6002027-6BD9-4884-BCE2-DE69C8A1290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6E891-6D4C-4CA2-B002-259C4A37E743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC82C207-0CDA-4B84-BC38-472F0FAC1A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Capitales_Wilaya" sheetId="3" r:id="rId1"/>
+    <sheet name="Mougataa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capitales_Wilaya!$A$1:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mougataa!$A$1:$D$64</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Tiris Zemmour</t>
+  </si>
+  <si>
+    <t>Nouakchott-Ouest</t>
+  </si>
+  <si>
+    <t>Nouakchott-Sud</t>
+  </si>
+  <si>
+    <t>Brakna</t>
+  </si>
+  <si>
+    <t>Dakhlet Nouadhibou</t>
+  </si>
+  <si>
+    <t>Gorgol</t>
+  </si>
+  <si>
+    <t>Guidimagha</t>
+  </si>
+  <si>
+    <t>Assaba</t>
+  </si>
+  <si>
+    <t>Hodh Chargui</t>
+  </si>
+  <si>
+    <t>Hodh El Gharbi</t>
+  </si>
+  <si>
+    <t>Adrar</t>
+  </si>
+  <si>
+    <t>Inchiri</t>
+  </si>
+  <si>
+    <t>Nouakchott-Nord</t>
+  </si>
+  <si>
+    <t>Trarza</t>
+  </si>
+  <si>
+    <t>Tagant</t>
+  </si>
+  <si>
+    <t>wilaya</t>
+  </si>
+  <si>
+    <t>Sebkha</t>
+  </si>
+  <si>
+    <t>Arafat</t>
+  </si>
+  <si>
+    <t>Aïoun</t>
+  </si>
+  <si>
+    <t>Néma</t>
+  </si>
+  <si>
+    <t>Zoueratt</t>
+  </si>
+  <si>
+    <t>Dar Naïm</t>
+  </si>
+  <si>
+    <t>Kankoussa</t>
+  </si>
+  <si>
+    <t>Magtalahjar</t>
+  </si>
+  <si>
+    <t>Bir Moghrein</t>
+  </si>
+  <si>
+    <t>Mederdra</t>
+  </si>
+  <si>
+    <t>Oualata</t>
+  </si>
+  <si>
+    <t>Teyaret</t>
+  </si>
+  <si>
+    <t>Tevragh Zeina</t>
+  </si>
+  <si>
+    <t>Tidjikja</t>
+  </si>
+  <si>
+    <t>Ouad Naga</t>
+  </si>
+  <si>
+    <t>M'Bout</t>
+  </si>
+  <si>
+    <t>Adel Bagrou</t>
+  </si>
+  <si>
+    <t>Monguel</t>
+  </si>
+  <si>
+    <t>Boutilimit</t>
+  </si>
+  <si>
+    <t>Chinguitti</t>
+  </si>
+  <si>
+    <t>Atar</t>
+  </si>
+  <si>
+    <t>Bassiknou</t>
+  </si>
+  <si>
+    <t>Keur Macène</t>
+  </si>
+  <si>
+    <t>Tamcheket</t>
+  </si>
+  <si>
+    <t>Boghé</t>
+  </si>
+  <si>
+    <t>Ghabou</t>
+  </si>
+  <si>
+    <t>Riyad</t>
+  </si>
+  <si>
+    <t>Aleg</t>
+  </si>
+  <si>
+    <t>Maghama</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Tekane</t>
+  </si>
+  <si>
+    <t>Ksar</t>
+  </si>
+  <si>
+    <t>Toujounine</t>
+  </si>
+  <si>
+    <t>Bababé</t>
+  </si>
+  <si>
+    <t>Rosso</t>
+  </si>
+  <si>
+    <t>Akjoujt</t>
+  </si>
+  <si>
+    <t>Guerou</t>
+  </si>
+  <si>
+    <t>Tichit</t>
+  </si>
+  <si>
+    <t>Ould Yengé</t>
+  </si>
+  <si>
+    <t>Kiffa</t>
+  </si>
+  <si>
+    <t>Koubenni</t>
+  </si>
+  <si>
+    <t>Nouadhibou</t>
+  </si>
+  <si>
+    <t>Kaédi</t>
+  </si>
+  <si>
+    <t>Chami</t>
+  </si>
+  <si>
+    <t>Boumdeid</t>
+  </si>
+  <si>
+    <t>Amourj</t>
+  </si>
+  <si>
+    <t>Wompou</t>
+  </si>
+  <si>
+    <t>F'Deirick</t>
+  </si>
+  <si>
+    <t>Barkéol</t>
+  </si>
+  <si>
+    <t>Lexeiba</t>
+  </si>
+  <si>
+    <t>Touil</t>
+  </si>
+  <si>
+    <t>Ouadane</t>
+  </si>
+  <si>
+    <t>R'Kiz</t>
+  </si>
+  <si>
+    <t>Sélibaby</t>
+  </si>
+  <si>
+    <t>M'Bagne</t>
+  </si>
+  <si>
+    <t>Moudjeria</t>
+  </si>
+  <si>
+    <t>Timbedra</t>
+  </si>
+  <si>
+    <t>El Mina</t>
+  </si>
+  <si>
+    <t>Djiguenni</t>
+  </si>
+  <si>
+    <t>N'beiket Lahwach</t>
+  </si>
+  <si>
+    <t>Bennechab</t>
+  </si>
+  <si>
+    <t>Tintane</t>
+  </si>
+  <si>
+    <t>Aoujeft</t>
+  </si>
   <si>
     <t>Ville</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Aïoun</t>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>15.777110526156</t>
+  </si>
+  <si>
+    <t>-6.67675230545682</t>
   </si>
   <si>
     <t>16.8366893287323</t>
@@ -45,22 +304,370 @@
     <t>-9.27583480330441</t>
   </si>
   <si>
-    <t>Akjoujt</t>
-  </si>
-  <si>
     <t>19.9420143167071</t>
   </si>
   <si>
     <t>-14.6440193516613</t>
   </si>
   <si>
-    <t>Aleg</t>
-  </si>
-  <si>
     <t>17.1728009990846</t>
   </si>
   <si>
     <t>-13.9023810848904</t>
+  </si>
+  <si>
+    <t>15.7729728553603</t>
+  </si>
+  <si>
+    <t>-7.37091423643246</t>
+  </si>
+  <si>
+    <t>19.4184509680169</t>
+  </si>
+  <si>
+    <t>-13.060785774459</t>
+  </si>
+  <si>
+    <t>18.050476</t>
+  </si>
+  <si>
+    <t>-15.9580543123123</t>
+  </si>
+  <si>
+    <t>20.6190971368345</t>
+  </si>
+  <si>
+    <t>-13.4188043441809</t>
+  </si>
+  <si>
+    <t>16.4852720675491</t>
+  </si>
+  <si>
+    <t>-13.9241247333335</t>
+  </si>
+  <si>
+    <t>16.6751124071314</t>
+  </si>
+  <si>
+    <t>-12.3991903380487</t>
+  </si>
+  <si>
+    <t>16.0501564070982</t>
+  </si>
+  <si>
+    <t>-6.01154050647926</t>
+  </si>
+  <si>
+    <t>19.3530037323343</t>
+  </si>
+  <si>
+    <t>-15.3224034274247</t>
+  </si>
+  <si>
+    <t>25.6582202666742</t>
+  </si>
+  <si>
+    <t>-8.66829739348436</t>
+  </si>
+  <si>
+    <t>16.670922402766</t>
+  </si>
+  <si>
+    <t>-14.4061446258428</t>
+  </si>
+  <si>
+    <t>17.7827046083815</t>
+  </si>
+  <si>
+    <t>-11.2722471937061</t>
+  </si>
+  <si>
+    <t>18.1369336584647</t>
+  </si>
+  <si>
+    <t>-14.1193843326365</t>
+  </si>
+  <si>
+    <t>19.6331114605043</t>
+  </si>
+  <si>
+    <t>-16.4883891371054</t>
+  </si>
+  <si>
+    <t>20.1657568787497</t>
+  </si>
+  <si>
+    <t>-10.3961176356604</t>
+  </si>
+  <si>
+    <t>18.0783994226296</t>
+  </si>
+  <si>
+    <t>-15.885155269477</t>
+  </si>
+  <si>
+    <t>15.931241489269</t>
+  </si>
+  <si>
+    <t>-8.73373374618077</t>
+  </si>
+  <si>
+    <t>18.0539479806214</t>
+  </si>
+  <si>
+    <t>-15.9569886032454</t>
+  </si>
+  <si>
+    <t>22.6555897775708</t>
+  </si>
+  <si>
+    <t>-12.7864363579804</t>
+  </si>
+  <si>
+    <t>15.3526009000657</t>
+  </si>
+  <si>
+    <t>-12.491989847739</t>
+  </si>
+  <si>
+    <t>16.886033457674</t>
+  </si>
+  <si>
+    <t>-11.9970392826645</t>
+  </si>
+  <si>
+    <t>16.0455219912174</t>
+  </si>
+  <si>
+    <t>-13.1873050779235</t>
+  </si>
+  <si>
+    <t>15.8155101212945</t>
+  </si>
+  <si>
+    <t>-11.1243624228058</t>
+  </si>
+  <si>
+    <t>16.6481629446986</t>
+  </si>
+  <si>
+    <t>-16.2380715659807</t>
+  </si>
+  <si>
+    <t>16.678771880566</t>
+  </si>
+  <si>
+    <t>-11.4111923888962</t>
+  </si>
+  <si>
+    <t>15.8810177989499</t>
+  </si>
+  <si>
+    <t>-9.44679210630746</t>
+  </si>
+  <si>
+    <t>18.0759095628086</t>
+  </si>
+  <si>
+    <t>-16.0205979614608</t>
+  </si>
+  <si>
+    <t>16.2264551</t>
+  </si>
+  <si>
+    <t>-13.1398876</t>
+  </si>
+  <si>
+    <t>16.2669049225824</t>
+  </si>
+  <si>
+    <t>-13.7808228609031</t>
+  </si>
+  <si>
+    <t>16.0458397534298</t>
+  </si>
+  <si>
+    <t>-12.5257739402154</t>
+  </si>
+  <si>
+    <t>15.54229228636</t>
+  </si>
+  <si>
+    <t>-12.8503711933997</t>
+  </si>
+  <si>
+    <t>17.7374432436965</t>
+  </si>
+  <si>
+    <t>-12.9366786681538</t>
+  </si>
+  <si>
+    <t>16.7891254973091</t>
+  </si>
+  <si>
+    <t>-13.339957843615</t>
+  </si>
+  <si>
+    <t>17.1292440228788</t>
+  </si>
+  <si>
+    <t>-15.7305745387385</t>
+  </si>
+  <si>
+    <t>16.4547434782446</t>
+  </si>
+  <si>
+    <t>-12.973608131229</t>
+  </si>
+  <si>
+    <t>17.8312555690455</t>
+  </si>
+  <si>
+    <t>-12.1452876614686</t>
+  </si>
+  <si>
+    <t>17.6303249056768</t>
+  </si>
+  <si>
+    <t>-6.17096602097312</t>
+  </si>
+  <si>
+    <t>16.3926143684381</t>
+  </si>
+  <si>
+    <t>-7.34328812930029</t>
+  </si>
+  <si>
+    <t>21.0200766331283</t>
+  </si>
+  <si>
+    <t>-15.9151199295992</t>
+  </si>
+  <si>
+    <t>18.2313375450054</t>
+  </si>
+  <si>
+    <t>-15.3552955267554</t>
+  </si>
+  <si>
+    <t>21.8839605148634</t>
+  </si>
+  <si>
+    <t>-8.74801953331454</t>
+  </si>
+  <si>
+    <t>19.1103349267417</t>
+  </si>
+  <si>
+    <t>-7.23951167244725</t>
+  </si>
+  <si>
+    <t>15.6792341348242</t>
+  </si>
+  <si>
+    <t>-11.8852789596282</t>
+  </si>
+  <si>
+    <t>17.0497048049145</t>
+  </si>
+  <si>
+    <t>-15.0388179256894</t>
+  </si>
+  <si>
+    <t>17.9666550985718</t>
+  </si>
+  <si>
+    <t>-15.911298584619</t>
+  </si>
+  <si>
+    <t>16.6264755333439</t>
+  </si>
+  <si>
+    <t>-15.6941505288147</t>
+  </si>
+  <si>
+    <t>18.1358804287456</t>
+  </si>
+  <si>
+    <t>-15.9660172677971</t>
+  </si>
+  <si>
+    <t>15.4729996284158</t>
+  </si>
+  <si>
+    <t>-12.1965786387684</t>
+  </si>
+  <si>
+    <t>17.0938844721679</t>
+  </si>
+  <si>
+    <t>-10.4569615551753</t>
+  </si>
+  <si>
+    <t>16.7716589355234</t>
+  </si>
+  <si>
+    <t>-15.1409551685359</t>
+  </si>
+  <si>
+    <t>18.285112189561</t>
+  </si>
+  <si>
+    <t>-16.0015389922396</t>
+  </si>
+  <si>
+    <t>18.2992176900707</t>
+  </si>
+  <si>
+    <t>-15.9199108542987</t>
+  </si>
+  <si>
+    <t>18.7090457656802</t>
+  </si>
+  <si>
+    <t>-9.68135902252534</t>
+  </si>
+  <si>
+    <t>18.6315729894793</t>
+  </si>
+  <si>
+    <t>-11.5524434053275</t>
+  </si>
+  <si>
+    <t>16.1932814195373</t>
+  </si>
+  <si>
+    <t>-8.19197204274579</t>
+  </si>
+  <si>
+    <t>16.1231101074115</t>
+  </si>
+  <si>
+    <t>-10.350890869564</t>
+  </si>
+  <si>
+    <t>15.5680799728925</t>
+  </si>
+  <si>
+    <t>-10.2361510874144</t>
+  </si>
+  <si>
+    <t>18.1199707444677</t>
+  </si>
+  <si>
+    <t>-15.9199044005033</t>
+  </si>
+  <si>
+    <t>15.1285491</t>
+  </si>
+  <si>
+    <t>-12.7224746</t>
+  </si>
+  <si>
+    <t>23.4958870003132</t>
+  </si>
+  <si>
+    <t>-10.1376367144798</t>
   </si>
 </sst>
 </file>
@@ -69,7 +676,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,18 +726,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,44 +758,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -218,31 +823,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -270,23 +858,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -298,163 +869,222 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF242B39-D2E5-4831-8D23-BE6F4839F10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51796C5-D7F2-A644-9859-4808C732DA17}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C14" sqref="A6:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -465,88 +1095,1068 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_LAPTOP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hafedh/Desktop/SupNum/Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6E891-6D4C-4CA2-B002-259C4A37E743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F50F08-E3F9-9C48-8A3F-AD49078BB8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capitales_Wilaya" sheetId="3" r:id="rId1"/>
@@ -1071,18 +1071,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51796C5-D7F2-A644-9859-4808C732DA17}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C14" sqref="A6:C14"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1249,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -1257,7 +1257,7 @@
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>72</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hafedh/Desktop/SupNum/Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A5773-88FB-40F6-BD47-C158B0464F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F50F08-E3F9-9C48-8A3F-AD49078BB8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capitales_Wilaya" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Capitales_Wilaya!$A$1:$C$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mougataa!$A$1:$D$64</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1059,17 +1072,17 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1091,84 +1104,84 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1201,7 +1214,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1249,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -1244,7 +1257,7 @@
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -1300,7 +1313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1328,7 +1341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -1398,7 +1411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1454,7 +1467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1538,7 +1551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1552,7 +1565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1607,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1691,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -1706,7 +1719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1762,7 +1775,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1845,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -1874,7 +1887,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -1902,7 +1915,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -1916,7 +1929,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1944,7 +1957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1958,7 +1971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>72</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
@@ -1986,7 +1999,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +2013,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2027,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>32</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
@@ -2070,7 +2083,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
@@ -2098,7 +2111,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2126,7 +2139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
